--- a/TestData/PolicyServicing/TestData.xlsx
+++ b/TestData/PolicyServicing/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_Automation_TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\TestData\PolicyServicing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC9791E-7268-4114-AF59-63569B330065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF41998-3DB2-4279-8690-6DDE84AB6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -2000,7 +2000,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/PolicyServicing/TestData.xlsx
+++ b/TestData/PolicyServicing/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\TestData\PolicyServicing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF41998-3DB2-4279-8690-6DDE84AB6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C47D01-3018-4A98-AF5F-04BD0AAD74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="340" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="257">
   <si>
     <t>Policy No</t>
   </si>
@@ -755,67 +755,73 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>9805045297085</t>
-  </si>
-  <si>
     <t>employee_number1</t>
-  </si>
-  <si>
-    <t>SF00000375</t>
   </si>
   <si>
     <t>SS20220149</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>2000/01/17</t>
-  </si>
-  <si>
     <t>Keys</t>
-  </si>
-  <si>
-    <t>SS08294292</t>
   </si>
   <si>
     <t>2022/06/01</t>
   </si>
   <si>
-    <t>SF00000271</t>
-  </si>
-  <si>
-    <t>SF66111057</t>
-  </si>
-  <si>
-    <t>SS08294294</t>
-  </si>
-  <si>
-    <t>SS08294295</t>
-  </si>
-  <si>
-    <t>0001175819083</t>
-  </si>
-  <si>
     <t>Molo</t>
-  </si>
-  <si>
-    <t>SS00244237</t>
-  </si>
-  <si>
-    <t>0008086974089</t>
-  </si>
-  <si>
-    <t>0008085626086</t>
   </si>
   <si>
     <t>Golonolo</t>
   </si>
   <si>
-    <t>65288438</t>
+    <t>SF00000186</t>
   </si>
   <si>
-    <t>95432992</t>
+    <t>SF00000438</t>
+  </si>
+  <si>
+    <t>SF00000261</t>
+  </si>
+  <si>
+    <t>2000/01/01</t>
+  </si>
+  <si>
+    <t>95432999</t>
+  </si>
+  <si>
+    <t>64678438</t>
+  </si>
+  <si>
+    <t>0001018048080</t>
+  </si>
+  <si>
+    <t>0008088096089</t>
+  </si>
+  <si>
+    <t>0008086352088</t>
+  </si>
+  <si>
+    <t>SF00000734</t>
+  </si>
+  <si>
+    <t>SF00000763</t>
+  </si>
+  <si>
+    <t>SF00000867</t>
+  </si>
+  <si>
+    <t>SF00000634</t>
+  </si>
+  <si>
+    <t>SF00000641</t>
+  </si>
+  <si>
+    <t>SF00000194</t>
+  </si>
+  <si>
+    <t>SS18059001</t>
+  </si>
+  <si>
+    <t>SS08059001</t>
   </si>
 </sst>
 </file>
@@ -893,17 +899,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9" tint="0.79998168889431442"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -967,7 +972,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1028,17 +1033,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1074,15 +1068,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF616161"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF616161"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF616161"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF616161"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,7 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1162,12 +1158,6 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1198,30 +1188,121 @@
     <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF616161"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF616161"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF616161"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1486,109 +1567,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1682,19 +1660,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J12" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J16" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{80466B51-2305-4DF9-9EAC-2923B49E340E}" name="Comments" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{80466B51-2305-4DF9-9EAC-2923B49E340E}" name="Comments" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1997,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2017,43 +1995,43 @@
     <col min="10" max="10" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="56" t="s">
         <v>181</v>
       </c>
       <c r="C2" s="34"/>
@@ -2067,11 +2045,11 @@
       <c r="I2" s="28"/>
       <c r="J2" s="36"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="56" t="s">
         <v>176</v>
       </c>
       <c r="C3" s="34"/>
@@ -2085,11 +2063,11 @@
       <c r="I3" s="28"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="B4" s="62" t="s">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="56" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="34"/>
@@ -2103,12 +2081,12 @@
       <c r="I4" s="29"/>
       <c r="J4" s="37"/>
     </row>
-    <row r="5" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>177</v>
+    <row r="5" spans="1:10" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>167</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -2121,131 +2099,203 @@
       <c r="I5" s="29"/>
       <c r="J5" s="37"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G8" s="39"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="63" t="s">
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="63" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="42"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2262,7 +2312,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2303,22 +2353,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>186</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>154</v>
@@ -2334,7 +2384,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2392,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>154</v>
@@ -2412,7 +2462,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2454,7 +2504,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>223</v>
@@ -2469,13 +2519,13 @@
         <v>17</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>154</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2499,24 +2549,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="42">
         <v>10000</v>
       </c>
     </row>
@@ -2530,7 +2580,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2557,7 +2607,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +2621,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B22" sqref="B22:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2582,24 +2632,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="42">
         <v>70000</v>
       </c>
     </row>
@@ -2613,7 +2663,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2627,10 +2677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="24" t="s">
@@ -2639,31 +2689,31 @@
       <c r="D1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>106</v>
+      <c r="A2" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3121,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3087,42 +3137,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="42" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2"/>
@@ -3139,7 +3189,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3151,23 +3201,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>253</v>
+      <c r="A2" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
+      <c r="A3" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/TestData/PolicyServicing/TestData.xlsx
+++ b/TestData/PolicyServicing/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\TestData\PolicyServicing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_Automation_TestSuite\TestData\PolicyServicing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C47D01-3018-4A98-AF5F-04BD0AAD74EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040FFE78-FF43-47E2-B65A-B11B3BABBA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -785,12 +785,6 @@
     <t>2000/01/01</t>
   </si>
   <si>
-    <t>95432999</t>
-  </si>
-  <si>
-    <t>64678438</t>
-  </si>
-  <si>
     <t>0001018048080</t>
   </si>
   <si>
@@ -822,6 +816,12 @@
   </si>
   <si>
     <t>SS08059001</t>
+  </si>
+  <si>
+    <t>95452999</t>
+  </si>
+  <si>
+    <t>64677738</t>
   </si>
 </sst>
 </file>
@@ -1215,103 +1215,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF616161"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color rgb="FF616161"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FF616161"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1567,6 +1470,103 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF616161"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color rgb="FF616161"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FF616161"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -1663,16 +1663,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:J16" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{80466B51-2305-4DF9-9EAC-2923B49E340E}" name="Comments" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{80466B51-2305-4DF9-9EAC-2923B49E340E}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>181</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>176</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>177</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>182</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="56" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="56" t="s">
         <v>183</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>178</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>175</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B13" s="56" t="s">
         <v>169</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="14" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="56" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B14" s="56" t="s">
         <v>170</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>171</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B16" s="56" t="s">
         <v>184</v>
@@ -2368,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>154</v>
@@ -2442,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>154</v>
@@ -2519,7 +2519,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>154</v>
@@ -2607,7 +2607,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A4A292-240A-4D5D-90BA-625919CD3573}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3188,8 +3188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3D8CAB-0E14-4279-809A-3C7733342420}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3210,10 +3210,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
